--- a/data/resumes_scrubbed/legislative_activity/109_2.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/109_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{77F449EB-41F1-461F-9653-C3BE4C1E9EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:40009_{77F449EB-41F1-461F-9653-C3BE4C1E9EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7941C835-A707-4D6D-B0B2-9B605960ED07}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="109_2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Senate</t>
   </si>
@@ -31,15 +31,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>S11857</t>
-  </si>
-  <si>
-    <t>H9325</t>
-  </si>
-  <si>
-    <t>E2257</t>
-  </si>
-  <si>
     <t>Measures introduced, total</t>
   </si>
   <si>
@@ -52,9 +43,6 @@
     <t>Pages of proceedings</t>
   </si>
   <si>
-    <t>Extension of remarks</t>
-  </si>
-  <si>
     <t>Public bills enacted into law</t>
   </si>
   <si>
@@ -64,30 +52,6 @@
     <t>Bills in conference</t>
   </si>
   <si>
-    <t>Measure passed, total</t>
-  </si>
-  <si>
-    <t>Senate bills</t>
-  </si>
-  <si>
-    <t>House bills</t>
-  </si>
-  <si>
-    <t>Senate joint resolutions</t>
-  </si>
-  <si>
-    <t>House joint resolutions</t>
-  </si>
-  <si>
-    <t>Senate concurrent resolutions</t>
-  </si>
-  <si>
-    <t>House concurrent resolutions</t>
-  </si>
-  <si>
-    <t>Simple resolutions</t>
-  </si>
-  <si>
     <t>Special reports</t>
   </si>
   <si>
@@ -160,16 +124,43 @@
     <t xml:space="preserve">     Measures introduced, Simple resolutions</t>
   </si>
   <si>
-    <t>1027 hrs,48'</t>
-  </si>
-  <si>
     <t>850 hrs, 19'</t>
+  </si>
+  <si>
+    <t>Extensions of remarks</t>
+  </si>
+  <si>
+    <t>Measures passed, total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Measures passed, Senate bills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Measures passed, House bills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Measures passed, Senate joint resolutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Measures passed, House joint resolutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Measures passed, Senate concurrent resolutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Measures passed, Simple resolutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Measures passed, House concurrent resolutions</t>
+  </si>
+  <si>
+    <t>1027 hrs, 48'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -714,6 +705,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,10 +1027,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1056,7 +1053,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>109</v>
@@ -1070,7 +1067,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1084,7 +1081,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>38720</v>
@@ -1098,7 +1095,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>39082</v>
@@ -1112,7 +1109,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>138</v>
@@ -1123,40 +1120,40 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>11857</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9325</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
+      <c r="C9" s="1">
+        <v>2257</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>100</v>
@@ -1170,7 +1167,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1184,7 +1181,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1198,7 +1195,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1">
         <v>635</v>
@@ -1212,7 +1209,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1">
         <v>142</v>
@@ -1223,7 +1220,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1">
         <v>211</v>
@@ -1234,7 +1231,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -1245,7 +1242,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1">
         <v>8</v>
@@ -1256,7 +1253,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1">
         <v>20</v>
@@ -1267,7 +1264,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1">
         <v>41</v>
@@ -1278,7 +1275,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
         <v>211</v>
@@ -1289,7 +1286,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>231</v>
@@ -1303,7 +1300,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>160</v>
@@ -1314,7 +1311,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>57</v>
@@ -1325,7 +1322,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -1336,7 +1333,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -1347,7 +1344,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -1358,7 +1355,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -1369,7 +1366,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
         <v>7</v>
@@ -1380,7 +1377,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
         <v>11</v>
@@ -1391,7 +1388,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -1402,7 +1399,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1">
         <v>303</v>
@@ -1413,7 +1410,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" s="2">
         <v>2302</v>
@@ -1427,7 +1424,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
         <v>1953</v>
@@ -1438,7 +1435,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1">
         <v>14</v>
@@ -1449,7 +1446,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1">
         <v>48</v>
@@ -1460,7 +1457,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1">
         <v>287</v>
@@ -1471,7 +1468,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
@@ -1482,7 +1479,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B38" s="1">
         <v>279</v>
@@ -1493,7 +1490,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -1504,7 +1501,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -1515,7 +1512,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
